--- a/biology/Zoologie/Calligrapha_multipunctata/Calligrapha_multipunctata.xlsx
+++ b/biology/Zoologie/Calligrapha_multipunctata/Calligrapha_multipunctata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Calligraphe du saule (latin : Calligrapha multipunctata, anglais : Common willow calligrapha) est un Coléoptère de la famille des Chrysomelidae, un insecte phytophage commun dans tout l'Amérique du Nord, l'Alaska compris. Il peut atteindre plus de 9 mm de long.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les boisés où poussent les Saules et autres Salicaceae, près des lisières et des orées. On peut également le croiser le long des routes et des sentiers.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa livrée varie entre le blanc argenté à blanc rosâtre pâle. Son pronotum est large et ressemble à un cône tronqué, orné d'une large tache noire dans la partie postérieure. Ses élytres forment un dôme semi-hémisphérique. Son ornementation est complexe, et comprend notamment trois bandes longitudinales, la centrale s'évasant au pronotum, et quatre taches allongées dans la partie antérieure des deux élytres.
 </t>
@@ -573,7 +589,9 @@
           <t>Cycles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte se rencontre dès le mois d’avril dans les États américains, et ce, jusqu’en septembre, juillet étant le mois culminant.
 </t>
@@ -604,7 +622,9 @@
           <t>Populations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des études ont démontré qu’une portée comptait en moyenne 3 femelles pour 2 mâles, parfois 2 femelles pour 1 mâle.
 </t>
@@ -635,7 +655,9 @@
           <t>Confusion</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains spécimens peuvent se confondre avec le Calligrapha philadelphica. Mais ce dernier présente généralement un pronotum entièrement noir.
 </t>
